--- a/experiments/Excel files/Graphs/s1c1m1_0_C.xlsx
+++ b/experiments/Excel files/Graphs/s1c1m1_0_C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charc\eclipse-workspace\TFM_v3\finalExperiments_v3\excel\graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFB6C16-A097-4E6D-B101-B2176ED01CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E900A-8453-43DA-A6FD-452B7EFBCA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1814,7 +1814,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Semilla inicial - frontera</c:v>
+            <c:v>Semilla inicial - mejor solución</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2921,7 +2921,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Remplazo directo - mejor frontera</c:v>
+            <c:v>Remplazo directo - mejor solución</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
